--- a/Report_Data_Siswa.xlsx
+++ b/Report_Data_Siswa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>ID_Student</t>
   </si>
@@ -44,7 +44,7 @@
     <t>Tanggal Lahir</t>
   </si>
   <si>
-    <t>Joe Tackett</t>
+    <t>Joe</t>
   </si>
   <si>
     <t>Lakilaki</t>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>2019-08-02</t>
-  </si>
-  <si>
-    <t>Joe</t>
   </si>
   <si>
     <t>sum@example.com</t>
@@ -706,7 +703,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>13</v>
@@ -721,13 +718,13 @@
         <v>81234568</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -735,7 +732,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <v>14</v>
@@ -750,13 +747,13 @@
         <v>81234569</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -764,7 +761,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
         <v>12</v>
@@ -779,13 +776,13 @@
         <v>81234567</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -793,7 +790,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <v>13</v>
@@ -808,13 +805,13 @@
         <v>81234568</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -822,7 +819,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
         <v>14</v>
@@ -837,13 +834,13 @@
         <v>81234569</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -851,7 +848,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1">
         <v>15</v>
@@ -866,13 +863,13 @@
         <v>81234570</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Report_Data_Siswa.xlsx
+++ b/Report_Data_Siswa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>ID_Student</t>
   </si>
@@ -44,94 +44,43 @@
     <t>Tanggal Lahir</t>
   </si>
   <si>
+    <t>Pendidikan</t>
+  </si>
+  <si>
+    <t>Pekerjaan</t>
+  </si>
+  <si>
+    <t>Agama / suku</t>
+  </si>
+  <si>
     <t>Joe</t>
   </si>
   <si>
-    <t>Lakilaki</t>
+    <t>lakilaki</t>
   </si>
   <si>
     <t>Somewhere</t>
   </si>
   <si>
-    <t>0812345678</t>
-  </si>
-  <si>
-    <t>example@com</t>
-  </si>
-  <si>
-    <t>Bergizi</t>
-  </si>
-  <si>
-    <t>01/09/2015</t>
-  </si>
-  <si>
-    <t>Joe Doe</t>
-  </si>
-  <si>
-    <t>McCloud</t>
-  </si>
-  <si>
-    <t>Nintendont</t>
-  </si>
-  <si>
-    <t>08293412</t>
-  </si>
-  <si>
-    <t>hiha@example.com</t>
-  </si>
-  <si>
-    <t>Sakit sakitan</t>
-  </si>
-  <si>
-    <t>01/02/2015</t>
-  </si>
-  <si>
-    <t>Birb</t>
-  </si>
-  <si>
-    <t>Nintendo</t>
-  </si>
-  <si>
-    <t>0812345</t>
-  </si>
-  <si>
-    <t>haha@example.com</t>
-  </si>
-  <si>
-    <t>Foo</t>
-  </si>
-  <si>
-    <t>Ledis</t>
-  </si>
-  <si>
-    <t>perempuan</t>
-  </si>
-  <si>
-    <t>08146147643</t>
-  </si>
-  <si>
-    <t>lul@example.com</t>
-  </si>
-  <si>
-    <t>2019-08-02</t>
-  </si>
-  <si>
-    <t>sum@example.com</t>
+    <t>081234</t>
+  </si>
+  <si>
+    <t>hihi@example.com</t>
   </si>
   <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>1/9/2015</t>
-  </si>
-  <si>
-    <t>1/10/2015</t>
-  </si>
-  <si>
-    <t>1/8/2015</t>
-  </si>
-  <si>
-    <t>1/11/2015</t>
+    <t>01/01/1964</t>
+  </si>
+  <si>
+    <t>PAUD</t>
+  </si>
+  <si>
+    <t>Siswa</t>
+  </si>
+  <si>
+    <t>Agnostik</t>
   </si>
 </sst>
 </file>
@@ -487,15 +436,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:I13"/>
+      <selection activeCell="A1" sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,353 +472,52 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="L2" t="s">
         <v>21</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1">
-        <v>81234568</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1">
-        <v>81234569</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1">
-        <v>81234567</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1">
-        <v>81234568</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1">
-        <v>81234569</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1">
-        <v>81234570</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
